--- a/output/below_50/tRNA-Ile-AAT-5-3.xlsx
+++ b/output/below_50/tRNA-Ile-AAT-5-3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="67">
   <si>
     <t>chr6</t>
   </si>
@@ -213,225 +213,6 @@
   </si>
   <si>
     <t>75</t>
-  </si>
-  <si>
-    <t>27205404</t>
-  </si>
-  <si>
-    <t>27205427</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>27205407</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>GGGTGGCCGGTTAGCTCAGT</t>
-  </si>
-  <si>
-    <t>35% (45)</t>
-  </si>
-  <si>
-    <t>83% (63)</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 12, Doench 2016: 35%, Moreno-Mateos: 83%</t>
-  </si>
-  <si>
-    <t>2.78604E+11</t>
-  </si>
-  <si>
-    <t>27205476</t>
-  </si>
-  <si>
-    <t>27205499</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>27205496</t>
-  </si>
-  <si>
-    <t>TTGTGTTTCTTTAACACTAA</t>
-  </si>
-  <si>
-    <t>21% (39)</t>
-  </si>
-  <si>
-    <t>44% (42)</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 34, Doench 2016: 21%, Moreno-Mateos: 44%</t>
-  </si>
-  <si>
-    <t>1.59052E+11</t>
-  </si>
-  <si>
-    <t>27205562</t>
-  </si>
-  <si>
-    <t>27205585</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>27205582</t>
-  </si>
-  <si>
-    <t>TTGTTTCTTCAAACTTCTGT</t>
-  </si>
-  <si>
-    <t>4% (14)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 37, Doench 2016: 43%, Moreno-Mateos: 4%</t>
-  </si>
-  <si>
-    <t>3.29161E+11</t>
-  </si>
-  <si>
-    <t>27205625</t>
-  </si>
-  <si>
-    <t>27205648</t>
-  </si>
-  <si>
-    <t>27205645</t>
-  </si>
-  <si>
-    <t>GGAAAACAAAAACAAAAACA</t>
-  </si>
-  <si>
-    <t>4% (15)</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>27205631</t>
-  </si>
-  <si>
-    <t>27205654</t>
-  </si>
-  <si>
-    <t>27205651</t>
-  </si>
-  <si>
-    <t>CAAAAACAAAAACAAGGACA</t>
-  </si>
-  <si>
-    <t>78% (59)</t>
-  </si>
-  <si>
-    <t>11% (23)</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>27205694</t>
-  </si>
-  <si>
-    <t>27205717</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>27205697</t>
-  </si>
-  <si>
-    <t>TGAGAAAATCTCATTTCCCA</t>
-  </si>
-  <si>
-    <t>72% (57)</t>
-  </si>
-  <si>
-    <t>22% (31)</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 45, Doench 2016: 72%, Moreno-Mateos: 22%</t>
-  </si>
-  <si>
-    <t>2.13072E+11</t>
-  </si>
-  <si>
-    <t>27205788</t>
-  </si>
-  <si>
-    <t>27205811</t>
-  </si>
-  <si>
-    <t>27205808</t>
-  </si>
-  <si>
-    <t>TTGGGAGGGGTCCAGAGACC</t>
-  </si>
-  <si>
-    <t>30% (43)</t>
-  </si>
-  <si>
-    <t>93% (73)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 34, Doench 2016: 30%, Moreno-Mateos: 93%</t>
-  </si>
-  <si>
-    <t>1.58487E+11</t>
-  </si>
-  <si>
-    <t>27205789</t>
-  </si>
-  <si>
-    <t>27205812</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>27205809</t>
-  </si>
-  <si>
-    <t>TGGGAGGGGTCCAGAGACCC</t>
-  </si>
-  <si>
-    <t>46% (49)</t>
-  </si>
-  <si>
-    <t>97% (81)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 41, Doench 2016: 46%, Moreno-Mateos: 97%</t>
-  </si>
-  <si>
-    <t>3.79935E+11</t>
   </si>
 </sst>
 </file>
@@ -476,7 +257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -954,478 +735,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" t="s">
-        <v>69</v>
-      </c>
-      <c r="N9" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R9" t="s">
-        <v>76</v>
-      </c>
-      <c r="S9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>85</v>
-      </c>
-      <c r="R10" t="s">
-        <v>86</v>
-      </c>
-      <c r="S10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N11" t="s">
-        <v>37</v>
-      </c>
-      <c r="O11" t="s">
-        <v>93</v>
-      </c>
-      <c r="P11" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R11" t="s">
-        <v>94</v>
-      </c>
-      <c r="S11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>99</v>
-      </c>
-      <c r="L12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" t="s">
-        <v>57</v>
-      </c>
-      <c r="O12" t="s">
-        <v>100</v>
-      </c>
-      <c r="P12" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>102</v>
-      </c>
-      <c r="R12" t="s">
-        <v>15</v>
-      </c>
-      <c r="S12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>106</v>
-      </c>
-      <c r="L13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" t="s">
-        <v>107</v>
-      </c>
-      <c r="O13" t="s">
-        <v>108</v>
-      </c>
-      <c r="P13" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>110</v>
-      </c>
-      <c r="R13" t="s">
-        <v>15</v>
-      </c>
-      <c r="S13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>115</v>
-      </c>
-      <c r="L14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" t="s">
-        <v>113</v>
-      </c>
-      <c r="N14" t="s">
-        <v>116</v>
-      </c>
-      <c r="O14" t="s">
-        <v>117</v>
-      </c>
-      <c r="P14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>119</v>
-      </c>
-      <c r="R14" t="s">
-        <v>120</v>
-      </c>
-      <c r="S14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>125</v>
-      </c>
-      <c r="L15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" t="s">
-        <v>80</v>
-      </c>
-      <c r="N15" t="s">
-        <v>126</v>
-      </c>
-      <c r="O15" t="s">
-        <v>127</v>
-      </c>
-      <c r="P15" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>119</v>
-      </c>
-      <c r="R15" t="s">
-        <v>129</v>
-      </c>
-      <c r="S15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" t="s">
-        <v>135</v>
-      </c>
-      <c r="L16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" t="s">
-        <v>133</v>
-      </c>
-      <c r="N16" t="s">
-        <v>136</v>
-      </c>
-      <c r="O16" t="s">
-        <v>137</v>
-      </c>
-      <c r="P16" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>119</v>
-      </c>
-      <c r="R16" t="s">
-        <v>138</v>
-      </c>
-      <c r="S16" t="s">
-        <v>139</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
